--- a/medicine/Enfance/Hélène_Kérillis/Hélène_Kérillis.xlsx
+++ b/medicine/Enfance/Hélène_Kérillis/Hélène_Kérillis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_K%C3%A9rillis</t>
+          <t>Hélène_Kérillis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hélène Kérillis est une autrice de livres pour la jeunesse née à Bordeaux le 15 juin 1951[1],[2],[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hélène Kérillis est une autrice de livres pour la jeunesse née à Bordeaux le 15 juin 1951.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_K%C3%A9rillis</t>
+          <t>Hélène_Kérillis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire d'Aquitaine, elle a suivi des études de lettres classiques et d'arts plastiques, avant de se tourner vers la littérature de jeunesse. Lecture et écriture sont pour elle des moyens d'appréhender le monde et d'enrichir les rencontres humaines : écrire, c'est établir une communication en différé avec les autres. Tout ce que les êtres humains ont découvert, inventé, imaginé l’intéresse, Histoire, Arts, Sciences… et ses livres reflètent cette curiosité humaniste. Son travail vise à faire découvrir le patrimoine culturel au plus grand nombre. Dans cet objectif, elle adapte pour un jeune public de grandes œuvres littéraires ou mythologiques[6] et écrit des ouvrages sur les grandes découvertes. Elle s'intéresse également à la fiction, avec en particulier plusieurs collections à partir des œuvres d'art : Mini Léon et Art-Fiction chez l'éditeur Léon art &amp; stories, Pont des Arts chez l'éditeur l'Elan vert.  Depuis 1996, elle a publié, pour un public de trois à douze ans, plus de cent livres dont plusieurs ont été traduits en anglais, italien, espagnol, grec ou coréen. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire d'Aquitaine, elle a suivi des études de lettres classiques et d'arts plastiques, avant de se tourner vers la littérature de jeunesse. Lecture et écriture sont pour elle des moyens d'appréhender le monde et d'enrichir les rencontres humaines : écrire, c'est établir une communication en différé avec les autres. Tout ce que les êtres humains ont découvert, inventé, imaginé l’intéresse, Histoire, Arts, Sciences… et ses livres reflètent cette curiosité humaniste. Son travail vise à faire découvrir le patrimoine culturel au plus grand nombre. Dans cet objectif, elle adapte pour un jeune public de grandes œuvres littéraires ou mythologiques et écrit des ouvrages sur les grandes découvertes. Elle s'intéresse également à la fiction, avec en particulier plusieurs collections à partir des œuvres d'art : Mini Léon et Art-Fiction chez l'éditeur Léon art &amp; stories, Pont des Arts chez l'éditeur l'Elan vert.  Depuis 1996, elle a publié, pour un public de trois à douze ans, plus de cent livres dont plusieurs ont été traduits en anglais, italien, espagnol, grec ou coréen. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_K%C3%A9rillis</t>
+          <t>Hélène_Kérillis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a écrit plus d'une centaine de livres[7],[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a écrit plus d'une centaine de livres, :
 Hercule et les pommes d'or,2023
 Ulysse et les sortilèges de Circé',2022
 Hercule contre l'hydre de Lerne,2022
